--- a/tetramer_validator/static/sample_2.xlsx
+++ b/tetramer_validator/static/sample_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amody/tetramer-validator/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amody/tetramer-validator/tetramer_validator/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16AF76-1A42-E84D-AD7F-2214B9AEAE36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E25F5D2-6527-BE42-A326-B2E612379E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3760" windowWidth="26840" windowHeight="15940" xr2:uid="{6575BACC-288B-A449-A4A3-EDBA4F9D6CF6}"/>
+    <workbookView xWindow="14480" yWindow="3980" windowWidth="26840" windowHeight="15940" xr2:uid="{6575BACC-288B-A449-A4A3-EDBA4F9D6CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,27 +63,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,15 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,37 +407,37 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
